--- a/DataTable/LevelAdReward.xlsx
+++ b/DataTable/LevelAdReward.xlsx
@@ -4,32 +4,80 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>奖励类型</t>
+  </si>
+  <si>
+    <t>添加数量</t>
+  </si>
+  <si>
+    <t>撤销上一步</t>
+  </si>
+  <si>
+    <t>7|10</t>
+  </si>
+  <si>
+    <t>增加一根柱子</t>
+  </si>
+  <si>
+    <t>2|3</t>
+  </si>
+  <si>
+    <t>获得钻石</t>
+  </si>
+  <si>
+    <t>20|30</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -176,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +233,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,12 +424,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,55 +565,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,77 +625,81 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -941,14 +1011,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
